--- a/water_quality_prediction/output/merge.xlsx
+++ b/water_quality_prediction/output/merge.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,15 +471,58 @@
       <c r="L1" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2019.01.01 00:00</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1.2</v>
       </c>
       <c r="B2" t="n">
-        <v>1.2</v>
+        <v>7.5</v>
       </c>
       <c r="C2" t="n">
         <v>91</v>
@@ -487,43 +530,82 @@
       <c r="D2" t="n">
         <v>13.8</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2019.01.01 01:00</t>
-        </is>
+      <c r="E2" t="n">
+        <v>0.5</v>
       </c>
       <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>11</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
         <v>1.1</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L2" t="n">
         <v>92</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
         <v>14</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2019.01.01 02:00</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="n">
         <v>1</v>
       </c>
-      <c r="K2" t="n">
+      <c r="T2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U2" t="n">
         <v>92</v>
       </c>
-      <c r="L2" t="n">
+      <c r="V2" t="n">
         <v>13.9</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>33</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2019.01.01 01:00</t>
-        </is>
+      <c r="A3" t="n">
+        <v>1.1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.1</v>
+        <v>7.5</v>
       </c>
       <c r="C3" t="n">
         <v>92</v>
@@ -531,43 +613,82 @@
       <c r="D3" t="n">
         <v>14</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2019.01.01 02:00</t>
-        </is>
+      <c r="E3" t="n">
+        <v>0.5</v>
       </c>
       <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>22</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="n">
+      <c r="K3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L3" t="n">
         <v>92</v>
       </c>
-      <c r="H3" t="n">
+      <c r="M3" t="n">
         <v>13.9</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2019.01.01 03:00</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
+      <c r="N3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
         <v>0.9</v>
       </c>
-      <c r="K3" t="n">
+      <c r="T3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U3" t="n">
         <v>91</v>
       </c>
-      <c r="L3" t="n">
+      <c r="V3" t="n">
         <v>13.8</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2019.01.01 02:00</t>
-        </is>
+      <c r="A4" t="n">
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="C4" t="n">
         <v>92</v>
@@ -575,33 +696,74 @@
       <c r="D4" t="n">
         <v>13.9</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2019.01.01 03:00</t>
-        </is>
+      <c r="E4" t="n">
+        <v>0.5</v>
       </c>
       <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>33</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.9</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L4" t="n">
         <v>91</v>
       </c>
-      <c r="H4" t="n">
+      <c r="M4" t="n">
         <v>13.8</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2019.01.01 04:00</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
         <v>1</v>
       </c>
-      <c r="K4" t="n">
+      <c r="T4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U4" t="n">
         <v>91</v>
       </c>
-      <c r="L4" t="n">
+      <c r="V4" t="n">
         <v>13.8</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
